--- a/EE/theBigBatteryCalculator.xlsx
+++ b/EE/theBigBatteryCalculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evere\Documents\GitHub\StormDrainRobot\EE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\StormDrainRobot\EE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5423FA56-4856-4594-9D90-8AA502E818A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F5C0A-CA16-46CB-BCBC-4FB243013932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" activeTab="1" xr2:uid="{2805E8E7-BA38-41BF-957C-17387B357D35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2805E8E7-BA38-41BF-957C-17387B357D35}"/>
   </bookViews>
   <sheets>
     <sheet name="TBDraw" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>Nominal Current</t>
   </si>
@@ -155,12 +155,6 @@
     <t>Wh</t>
   </si>
   <si>
-    <t>Drive Time Ah</t>
-  </si>
-  <si>
-    <t>Drive Time Wh</t>
-  </si>
-  <si>
     <t>Load Factor</t>
   </si>
   <si>
@@ -192,6 +186,18 @@
   </si>
   <si>
     <t>Adjusted Power</t>
+  </si>
+  <si>
+    <t>Pitch Servo</t>
+  </si>
+  <si>
+    <t>Pan Servo</t>
+  </si>
+  <si>
+    <t>Drive Time Ah (hr)</t>
+  </si>
+  <si>
+    <t>Drive Time Wh (h)</t>
   </si>
 </sst>
 </file>
@@ -227,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +252,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -298,11 +310,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,6 +386,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -677,43 +720,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE54EED-B1A0-4032-9FB8-85DBBA9E4F32}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="3" t="s">
         <v>28</v>
@@ -743,10 +787,10 @@
         <v>25</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -793,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -807,18 +851,18 @@
         <v>12</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E16" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E17" si="0">C4*D4</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="F4" s="6">
         <v>4</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G16" si="1">F4*C4</f>
+        <f t="shared" ref="G4:G17" si="1">F4*C4</f>
         <v>0.4</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H16" si="2">E4*F4</f>
+        <f t="shared" ref="H4:H17" si="2">E4*F4</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="I4" s="3">
@@ -826,11 +870,11 @@
         <v>1</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:J16" si="3">G4*I4</f>
+        <f t="shared" ref="J4:J17" si="3">G4*I4</f>
         <v>0.4</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K16" si="4">J4*D4*F4</f>
+        <f t="shared" ref="K4:K17" si="4">J4*D4*F4</f>
         <v>19.200000000000003</v>
       </c>
       <c r="L4" s="17" t="s">
@@ -838,10 +882,10 @@
       </c>
       <c r="M4" s="17">
         <f>'Motor Calculations'!D5</f>
-        <v>5.052537875933185E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.1010507575186637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -882,7 +926,7 @@
         <v>4.1279999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -890,40 +934,39 @@
         <v>27</v>
       </c>
       <c r="C6" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D6" s="3">
         <v>12</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="F6" s="6">
         <v>12</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="1"/>
-        <v>0.24</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="2"/>
-        <v>2.88</v>
+        <v>14.400000000000002</v>
       </c>
       <c r="I6" s="3">
-        <f>1</f>
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="3"/>
-        <v>0.24</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="4"/>
-        <v>34.56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+        <v>51.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -964,7 +1007,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
@@ -1005,9 +1048,9 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>27</v>
@@ -1023,258 +1066,255 @@
         <v>1.7999999999999998</v>
       </c>
       <c r="F9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="2"/>
-        <v>3.5999999999999996</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>0.125</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="4"/>
-        <v>7.1999999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="D10" s="21">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="E10" s="22">
+        <f t="shared" ref="E10" si="5">C10*D10</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="F10" s="23">
+        <v>1</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" ref="H10" si="6">E10*F10</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="I10" s="21">
+        <v>1</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" ref="J10" si="7">G10*I10</f>
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" ref="K10" si="8">J10*D10*F10</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="I11" s="16">
-        <f>M4</f>
-        <v>5.052537875933185E-2</v>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="3"/>
-        <v>0.60630454511198217</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="4"/>
-        <v>29.102618165375144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F12" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="I12" s="16">
+        <f>M4</f>
+        <v>0.1010507575186637</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1.2126090902239643</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+        <v>58.205236330750289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="27">
+        <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="16">
-        <f>M4</f>
-        <v>5.052537875933185E-2</v>
+        <v>20</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
         <v>12</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>2.4000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="F14" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="2"/>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="I14" s="15">
-        <f>M3</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <f>M4</f>
+        <v>0.1010507575186637</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="3"/>
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="4"/>
-        <v>2.4000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="3">
-        <v>5.9999999999999995E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D15" s="3">
         <v>12</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>7.1999999999999998E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F15" s="6">
         <v>1</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="1"/>
-        <v>5.9999999999999995E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="2"/>
-        <v>7.1999999999999998E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="I15" s="15">
         <f>M3</f>
@@ -1282,40 +1322,40 @@
       </c>
       <c r="J15" s="3">
         <f t="shared" si="3"/>
-        <v>5.9999999999999995E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="4"/>
-        <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+        <v>2.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="3">
-        <v>1.9E-2</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="D16" s="3">
         <v>12</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>0.22799999999999998</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="1"/>
-        <v>1.9E-2</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="2"/>
-        <v>0.22799999999999998</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="I16" s="15">
         <f>M3</f>
@@ -1323,47 +1363,88 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" si="3"/>
-        <v>1.9E-2</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="4"/>
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
         <v>0.22799999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="J17" s="8">
-        <f>SUM(J3:J16)</f>
-        <v>5.5868785451119836</v>
-      </c>
-      <c r="K17" s="9" t="s">
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="I17" s="15">
+        <f>M3</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="4"/>
+        <v>0.22799999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="J18" s="8">
+        <f>SUM(J3:J17)</f>
+        <v>6.6381830902239658</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="12"/>
-      <c r="B18" s="4"/>
-      <c r="J18" s="8">
-        <f>Sources!F2 / TBDraw!J17</f>
-        <v>3.579816500127464</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="J19" s="2">
-        <f>Sources!G2/SUM(K3:K16)</f>
-        <v>2.3187041423408998</v>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="4"/>
+      <c r="J19" s="8">
+        <f>Sources!F2 / TBDraw!J18</f>
+        <v>3.0128726080866834</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="2">
+        <f>Sources!G2/SUM(K3:K17)</f>
+        <v>1.6296482483247907</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1378,43 +1459,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C451F7D-53A0-4E77-A790-BDC17E7586E6}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="3" t="s">
         <v>28</v>
@@ -1440,18 +1523,21 @@
       <c r="I2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f>TBDraw!M4</f>
-        <v>5.052537875933185E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.1010507575186637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -1483,12 +1569,16 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="21">
         <f t="shared" ref="J3:J10" si="3">G3*I3</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K3" s="21">
+        <f>D3*F3*J3</f>
+        <v>19.200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1519,13 +1609,17 @@
       <c r="I4" s="3">
         <v>0.5</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="21">
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K4" s="21">
+        <f t="shared" ref="K4:K10" si="4">D4*F4*J4</f>
+        <v>9</v>
+      </c>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
@@ -1557,12 +1651,16 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="21">
         <f t="shared" si="3"/>
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K5" s="21">
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -1593,12 +1691,16 @@
       <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="21">
         <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K6" s="21">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1629,12 +1731,16 @@
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K7" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1642,7 +1748,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="3">
-        <f>TBDraw!C11*2</f>
+        <f>TBDraw!C12*2</f>
         <v>6</v>
       </c>
       <c r="D8" s="3">
@@ -1664,15 +1770,19 @@
         <v>144</v>
       </c>
       <c r="I8" s="16">
-        <f>L2</f>
-        <v>5.052537875933185E-2</v>
-      </c>
-      <c r="J8" s="3">
+        <f>M2</f>
+        <v>0.1010507575186637</v>
+      </c>
+      <c r="J8" s="21">
         <f t="shared" si="3"/>
-        <v>0.60630454511198217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1.2126090902239643</v>
+      </c>
+      <c r="K8" s="21">
+        <f t="shared" si="4"/>
+        <v>29.102618165375144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1703,12 +1813,16 @@
       <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="21">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K9" s="21">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1737,15 +1851,19 @@
         <v>0</v>
       </c>
       <c r="I10" s="16">
-        <f>L2</f>
-        <v>5.052537875933185E-2</v>
-      </c>
-      <c r="J10" s="3">
+        <f>M2</f>
+        <v>0.1010507575186637</v>
+      </c>
+      <c r="J10" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K10" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1755,22 +1873,32 @@
       <c r="H11" s="13"/>
       <c r="J11" s="8">
         <f>SUM(J3:J10)</f>
-        <v>5.9213045451119815</v>
+        <v>6.5276090902239643</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="4"/>
       <c r="J12" s="18">
         <f>Sources!F3/TGDraw!J11</f>
-        <v>1.5199353337482822</v>
+        <v>1.3787590334535806</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="2">
+        <f>SUM(K3:K10)/Sources!G3</f>
+        <v>0.51750077232271341</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1787,38 +1915,38 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -1841,34 +1969,34 @@
         <v>2.748893571891069</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>250</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <f>B5*A5/F2</f>
-        <v>181.89136353359467</v>
+        <v>363.78272706718934</v>
       </c>
       <c r="D5">
         <f>C5/3600</f>
-        <v>5.052537875933185E-2</v>
+        <v>0.1010507575186637</v>
       </c>
     </row>
   </sheetData>
@@ -1881,20 +2009,20 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="13.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1917,7 +2045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1940,7 +2068,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -1958,6 +2086,10 @@
       </c>
       <c r="F3" s="1">
         <v>9</v>
+      </c>
+      <c r="G3" s="1">
+        <f>F3*B3</f>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
